--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/05,25/26,05,25 Ост СЫР филиалы/дв 26,05,25 млрсч ост сыр от Зверева.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/05,25/26,05,25 Ост СЫР филиалы/дв 26,05,25 млрсч ост сыр от Зверева.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\26,05,25 Ост СЫР филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\05,25\26,05,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0125A316-9326-47F8-BB67-AA879278D74B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D3EDD4-D3E8-48A7-A8C4-410111E12171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -396,7 +396,10 @@
     <t>Потребность ТК</t>
   </si>
   <si>
-    <t>итого</t>
+    <t>заказ</t>
+  </si>
+  <si>
+    <t>02,06,</t>
   </si>
 </sst>
 </file>
@@ -950,7 +953,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1227,9 @@
         <v>24</v>
       </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -4006,7 +4011,7 @@
       </c>
       <c r="Q29" s="5"/>
       <c r="R29" s="5">
-        <f t="shared" ref="R28:R38" si="11">Q29</f>
+        <f t="shared" ref="R29:R38" si="11">Q29</f>
         <v>0</v>
       </c>
       <c r="S29" s="5"/>
